--- a/biology/Botanique/Kaitha/Kaitha.xlsx
+++ b/biology/Botanique/Kaitha/Kaitha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandanus fascicularis
 Le kaitha ou ketaki (केतकी) (Pandanus fascicularis syn. Pandanus odoratissimus) est un arbuste à fleurs que l'on trouve à l'état sauvage dans le sud de l'Inde, les îles Andaman-et-Nicobar et le Myanmar. Également connu sous les noms keora, keori, keura, kewda, kewra, keya, pin à vis ou encore arbre parapluie. Sa fleur est mentionnée dans le Shiva purana comme étant maudite par Shiva.
@@ -512,7 +524,9 @@
           <t>Utilisations de la fleur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle est utilisée en parfumerie sous forme d'huiles aromatiques ou de distillations odoriférantes appelées « keorra-ka-arak ».
 Ces huiles et distillations sont des stimulants et antispasmodiques utilisés contre les maux de tête et les rhumatismes.
